--- a/2.Design/Template/File_loi_nhap_hang.xlsx
+++ b/2.Design/Template/File_loi_nhap_hang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\WMS\WMS\Document\2.Design\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B674FCC-0A81-48D0-89AB-0D2FA869D3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF078A50-C6CB-41D7-9D25-73E959E7DB4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>Giá nhập</t>
-  </si>
-  <si>
     <t>Vị trí</t>
   </si>
   <si>
@@ -78,32 +75,100 @@
     <t>${item.errorInfo}</t>
   </si>
   <si>
-    <t>Mã hàng(*)</t>
-  </si>
-  <si>
-    <t>Trạng thái(*)</t>
-  </si>
-  <si>
-    <t>Số lượng(*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày sản xuất </t>
-  </si>
-  <si>
-    <t>Ngày hết hạn</t>
-  </si>
-  <si>
     <t>${item.produceDate}</t>
   </si>
   <si>
     <t>${item.expireDate}</t>
+  </si>
+  <si>
+    <r>
+      <t>Mã hàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)
+1: Bình thường
+2: Hỏng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Số lượng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Đơn giá nhập</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày sản xuất 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dd/MM/yyyy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hạn dùng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dd/MM/yyyy)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +197,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -142,7 +221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,11 +271,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,106 +591,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP16"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" customWidth="1"/>
-    <col min="25" max="25" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="8" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>18</v>
+      <c r="D1" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-    </row>
-    <row r="2" spans="1:42">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -625,58 +678,43 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:42" s="6" customFormat="1">
+    </row>
+    <row r="3" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:42" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -690,9 +728,8 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:42">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -704,9 +741,8 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:42">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -718,9 +754,8 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:42">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -732,9 +767,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:42">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -746,9 +780,8 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:42">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -760,9 +793,8 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:42">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -774,9 +806,8 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:42">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -788,9 +819,8 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:42">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -802,9 +832,8 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:42">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -816,9 +845,8 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:42">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -830,9 +858,8 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:42">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -844,9 +871,8 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:42">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -858,7 +884,6 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.Design/Template/File_loi_nhap_hang.xlsx
+++ b/2.Design/Template/File_loi_nhap_hang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF078A50-C6CB-41D7-9D25-73E959E7DB4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D22871-1A08-4012-8AFD-8EF2AFCCF155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
     <col min="8" max="8" width="11.26953125" customWidth="1"/>
     <col min="9" max="9" width="14.1796875" customWidth="1"/>
     <col min="10" max="10" width="13.90625" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/2.Design/Template/File_loi_nhap_hang.xlsx
+++ b/2.Design/Template/File_loi_nhap_hang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D22871-1A08-4012-8AFD-8EF2AFCCF155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD009571-5AC8-4AFC-97B5-02186C17547C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <cols>
     <col min="1" max="1" width="6.1796875" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
     <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
